--- a/biology/Médecine/Fantastic_voyage/Fantastic_voyage.xlsx
+++ b/biology/Médecine/Fantastic_voyage/Fantastic_voyage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fantastic voyage est un concept de prise en charge de la santé par les propres intéressés visant la longévité en bonne santé.
 Le texte fondateur est le livre Fantastic voyage de Ray Kurzweil et Terry Grossman traduit au français sous le titre Serons-nous immortels ? paru en 2006.
